--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2671866.911055894</v>
+        <v>-2673868.218568229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3188927.405031427</v>
+        <v>3188927.405031425</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58.62954923831251</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.19827352334037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43.30780621874255</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>188.5993751852866</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>228.0767087417152</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H5" t="n">
-        <v>31.31448940967739</v>
-      </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>141.4333832592918</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>121.5867105718717</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>376.6743538733476</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.37992939019519</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>246.7590832574092</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185925</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>150.5951517517456</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.77945773664938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>94.16481274941238</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>64.02545868683396</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>97.12772045570685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>105.6571329437492</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.1465556377803</v>
+        <v>116.1465556377817</v>
       </c>
       <c r="C28" t="n">
-        <v>103.5613965544708</v>
+        <v>103.5613965544723</v>
       </c>
       <c r="D28" t="n">
-        <v>84.93004847405535</v>
+        <v>84.93004847405678</v>
       </c>
       <c r="E28" t="n">
-        <v>82.74853810241217</v>
+        <v>82.74853810241359</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.73562347877566</v>
       </c>
       <c r="G28" t="n">
-        <v>102.8081439192206</v>
+        <v>102.808143919222</v>
       </c>
       <c r="H28" t="n">
-        <v>85.22840382337913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>22.46214766849038</v>
+        <v>25.95492801306387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.2789278596358</v>
+        <v>46.27892785963722</v>
       </c>
       <c r="S28" t="n">
-        <v>134.2353854394462</v>
+        <v>134.2353854394477</v>
       </c>
       <c r="T28" t="n">
-        <v>157.8621365142322</v>
+        <v>157.8621365142337</v>
       </c>
       <c r="U28" t="n">
-        <v>222.5519278544204</v>
+        <v>222.5519278544218</v>
       </c>
       <c r="V28" t="n">
-        <v>188.452218779671</v>
+        <v>188.4522187796724</v>
       </c>
       <c r="W28" t="n">
-        <v>222.837573792434</v>
+        <v>222.8375737924354</v>
       </c>
       <c r="X28" t="n">
-        <v>162.0242308448802</v>
+        <v>162.0242308448816</v>
       </c>
       <c r="Y28" t="n">
-        <v>154.8992288079378</v>
+        <v>154.8992288079392</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.1465556377804</v>
+        <v>116.1465556377817</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5613965544709</v>
+        <v>103.5613965544723</v>
       </c>
       <c r="D31" t="n">
-        <v>84.93004847405541</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.74853810241223</v>
+        <v>82.74853810241359</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>81.73562347877566</v>
       </c>
       <c r="G31" t="n">
-        <v>102.8081439192207</v>
+        <v>81.7308956628457</v>
       </c>
       <c r="H31" t="n">
-        <v>60.95673057175289</v>
+        <v>85.22840382338055</v>
       </c>
       <c r="I31" t="n">
-        <v>46.73382092011504</v>
+        <v>46.73382092011641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.27892785963586</v>
+        <v>46.27892785963722</v>
       </c>
       <c r="S31" t="n">
-        <v>134.2353854394463</v>
+        <v>134.2353854394477</v>
       </c>
       <c r="T31" t="n">
-        <v>157.8621365142323</v>
+        <v>157.8621365142337</v>
       </c>
       <c r="U31" t="n">
-        <v>222.5519278544204</v>
+        <v>222.5519278544218</v>
       </c>
       <c r="V31" t="n">
-        <v>188.4522187796711</v>
+        <v>188.4522187796724</v>
       </c>
       <c r="W31" t="n">
-        <v>222.8375737924341</v>
+        <v>222.8375737924354</v>
       </c>
       <c r="X31" t="n">
-        <v>162.0242308448802</v>
+        <v>162.0242308448816</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.8992288079378</v>
+        <v>154.8992288079392</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.601951533839</v>
       </c>
       <c r="C35" t="n">
-        <v>297.1410016413665</v>
+        <v>297.1410016413669</v>
       </c>
       <c r="D35" t="n">
         <v>286.5511514910423</v>
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310015</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555821</v>
       </c>
       <c r="T35" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310015</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555828</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201598</v>
+        <v>182.9467051201607</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
-        <v>338.7441556120708</v>
+        <v>338.7441556120699</v>
       </c>
       <c r="G41" t="n">
         <v>343.8326266600508</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555824</v>
       </c>
       <c r="T41" t="n">
-        <v>140.350898208861</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201611</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
         <v>259.6203683404943</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4031,13 +4031,13 @@
         <v>140.3508982088612</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201602</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877726</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.5608613485117</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="C2" t="n">
-        <v>249.5608613485117</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="D2" t="n">
-        <v>249.5608613485117</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="E2" t="n">
-        <v>249.5608613485117</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485117</v>
+        <v>289.280283350157</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>289.280283350157</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4334,19 +4334,19 @@
         <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
         <v>1052.968135806666</v>
@@ -4373,7 +4373,7 @@
         <v>296.2257840993605</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.5608613485117</v>
+        <v>296.2257840993605</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>334.1932169262459</v>
+        <v>64.80462152294399</v>
       </c>
       <c r="C3" t="n">
-        <v>159.7401876451189</v>
+        <v>64.80462152294399</v>
       </c>
       <c r="D3" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
         <v>21.05936271613333</v>
@@ -4413,16 +4413,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L3" t="n">
-        <v>21.05936271613333</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M3" t="n">
-        <v>264.2940185443782</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565281</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490202</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P3" t="n">
         <v>977.3180709271187</v>
@@ -4434,25 +4434,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>752.9179650631185</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U3" t="n">
-        <v>524.6976363053233</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="V3" t="n">
-        <v>334.1932169262459</v>
+        <v>319.0419782511456</v>
       </c>
       <c r="W3" t="n">
-        <v>334.1932169262459</v>
+        <v>64.80462152294399</v>
       </c>
       <c r="X3" t="n">
-        <v>334.1932169262459</v>
+        <v>64.80462152294399</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.1932169262459</v>
+        <v>64.80462152294399</v>
       </c>
     </row>
     <row r="4">
@@ -4492,7 +4492,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
         <v>100.1098670955239</v>
@@ -4504,19 +4504,19 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
         <v>21.05936271613333</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.7341079359765</v>
+        <v>874.2455409289015</v>
       </c>
       <c r="C5" t="n">
-        <v>546.7341079359765</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="D5" t="n">
-        <v>546.7341079359765</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="E5" t="n">
-        <v>546.7341079359765</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="F5" t="n">
-        <v>539.788607186773</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G5" t="n">
-        <v>260.8426337500503</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
         <v>22.09252109618844</v>
@@ -4574,13 +4574,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4607,10 +4607,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X5" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.7341079359765</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.9545243884024</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C6" t="n">
-        <v>164.9545243884024</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D6" t="n">
-        <v>164.9545243884024</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E6" t="n">
         <v>22.09252109618844</v>
@@ -4650,10 +4650,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="L6" t="n">
-        <v>22.09252109618844</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M6" t="n">
-        <v>288.9361218459458</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N6" t="n">
         <v>562.3310704112777</v>
@@ -4674,22 +4674,22 @@
         <v>836.1767451915302</v>
       </c>
       <c r="T6" t="n">
-        <v>836.1767451915302</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U6" t="n">
-        <v>607.9581328256779</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="V6" t="n">
-        <v>372.8060245939352</v>
+        <v>399.1447369878968</v>
       </c>
       <c r="W6" t="n">
-        <v>372.8060245939352</v>
+        <v>144.9073802596952</v>
       </c>
       <c r="X6" t="n">
-        <v>164.9545243884024</v>
+        <v>144.9073802596952</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.9545243884024</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="7">
@@ -4747,19 +4747,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R7" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S7" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T7" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.776758756894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W7" t="n">
         <v>22.09252109618844</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1374.814428194113</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.851911253702</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.851911253702</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.851911253702</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.664313856409</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.664313856409</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2432.902528494501</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2101.83964115093</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.414268258235</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>557.4050153476338</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
         <v>2317.834075963124</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1235.724852218975</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1011.93943700848</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>722.8107982220386</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5601,19 +5601,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5707,13 +5707,13 @@
         <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5732,16 +5732,16 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515098</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028587</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,19 +5975,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6002,16 +6002,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429513</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>583.8218172603147</v>
+        <v>583.8218172602901</v>
       </c>
       <c r="C28" t="n">
-        <v>479.2143459931724</v>
+        <v>479.2143459931464</v>
       </c>
       <c r="D28" t="n">
-        <v>393.4264182416013</v>
+        <v>393.4264182415739</v>
       </c>
       <c r="E28" t="n">
-        <v>309.8420363199729</v>
+        <v>309.842036319944</v>
       </c>
       <c r="F28" t="n">
-        <v>309.8420363199729</v>
+        <v>227.2808004827968</v>
       </c>
       <c r="G28" t="n">
-        <v>205.9954263005581</v>
+        <v>123.4341904633807</v>
       </c>
       <c r="H28" t="n">
-        <v>119.9061295092661</v>
+        <v>123.4341904633807</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>172.6483542229112</v>
+        <v>172.6483542229097</v>
       </c>
       <c r="K28" t="n">
-        <v>385.8823287662381</v>
+        <v>385.8823287662352</v>
       </c>
       <c r="L28" t="n">
-        <v>696.6429440760827</v>
+        <v>696.6429440760785</v>
       </c>
       <c r="M28" t="n">
-        <v>1031.258257141981</v>
+        <v>1031.258257141975</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.850936468244</v>
+        <v>1364.850936468237</v>
       </c>
       <c r="O28" t="n">
-        <v>1661.774484772356</v>
+        <v>1661.774484772347</v>
       </c>
       <c r="P28" t="n">
-        <v>1901.422819676754</v>
+        <v>1901.422819676744</v>
       </c>
       <c r="Q28" t="n">
-        <v>2003.304832947626</v>
+        <v>2003.304832947614</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.558441170216</v>
+        <v>1956.558441170203</v>
       </c>
       <c r="S28" t="n">
-        <v>1820.967142746533</v>
+        <v>1820.967142746518</v>
       </c>
       <c r="T28" t="n">
-        <v>1661.510439196803</v>
+        <v>1661.510439196787</v>
       </c>
       <c r="U28" t="n">
-        <v>1436.710512071126</v>
+        <v>1436.710512071109</v>
       </c>
       <c r="V28" t="n">
-        <v>1246.354735526004</v>
+        <v>1246.354735525985</v>
       </c>
       <c r="W28" t="n">
-        <v>1021.266277149808</v>
+        <v>1021.266277149788</v>
       </c>
       <c r="X28" t="n">
-        <v>857.6054379125552</v>
+        <v>857.6054379125335</v>
       </c>
       <c r="Y28" t="n">
-        <v>701.1415704297897</v>
+        <v>701.1415704297666</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,43 +6449,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.8218172603133</v>
+        <v>583.8218172602901</v>
       </c>
       <c r="C31" t="n">
-        <v>479.214345993171</v>
+        <v>479.2143459931464</v>
       </c>
       <c r="D31" t="n">
-        <v>393.4264182415998</v>
+        <v>479.2143459931464</v>
       </c>
       <c r="E31" t="n">
-        <v>309.8420363199713</v>
+        <v>395.6299640715165</v>
       </c>
       <c r="F31" t="n">
-        <v>309.8420363199713</v>
+        <v>313.0687282343694</v>
       </c>
       <c r="G31" t="n">
-        <v>205.9954263005565</v>
+        <v>230.5122679688687</v>
       </c>
       <c r="H31" t="n">
-        <v>144.4229711775738</v>
+        <v>144.4229711775752</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>172.6483542229111</v>
+        <v>172.6483542229097</v>
       </c>
       <c r="K31" t="n">
-        <v>385.8823287662379</v>
+        <v>385.8823287662352</v>
       </c>
       <c r="L31" t="n">
-        <v>696.6429440760826</v>
+        <v>696.6429440760785</v>
       </c>
       <c r="M31" t="n">
-        <v>1031.258257141981</v>
+        <v>1031.258257141975</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.850936468244</v>
+        <v>1364.850936468237</v>
       </c>
       <c r="O31" t="n">
-        <v>1661.774484772356</v>
+        <v>1661.774484772347</v>
       </c>
       <c r="P31" t="n">
-        <v>1901.422819676754</v>
+        <v>1901.422819676744</v>
       </c>
       <c r="Q31" t="n">
-        <v>2003.304832947625</v>
+        <v>2003.304832947614</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.558441170215</v>
+        <v>1956.558441170203</v>
       </c>
       <c r="S31" t="n">
-        <v>1820.967142746532</v>
+        <v>1820.967142746518</v>
       </c>
       <c r="T31" t="n">
-        <v>1661.510439196802</v>
+        <v>1661.510439196787</v>
       </c>
       <c r="U31" t="n">
-        <v>1436.710512071125</v>
+        <v>1436.710512071109</v>
       </c>
       <c r="V31" t="n">
-        <v>1246.354735526003</v>
+        <v>1246.354735525985</v>
       </c>
       <c r="W31" t="n">
-        <v>1021.266277149807</v>
+        <v>1021.266277149788</v>
       </c>
       <c r="X31" t="n">
-        <v>857.605437912554</v>
+        <v>857.6054379125335</v>
       </c>
       <c r="Y31" t="n">
-        <v>701.1415704297884</v>
+        <v>701.1415704297666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,13 +6701,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
         <v>1625.370946561769</v>
@@ -6929,28 +6929,28 @@
         <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538499</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K35" t="n">
-        <v>379.9072094774265</v>
+        <v>587.4696276002493</v>
       </c>
       <c r="L35" t="n">
-        <v>982.5380055443193</v>
+        <v>1289.073783644047</v>
       </c>
       <c r="M35" t="n">
-        <v>1334.795961106306</v>
+        <v>2086.350137363938</v>
       </c>
       <c r="N35" t="n">
-        <v>2130.341082210336</v>
+        <v>2448.921803300104</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234532</v>
+        <v>3154.9448643243</v>
       </c>
       <c r="P35" t="n">
         <v>3401.264108490335</v>
@@ -6968,16 +6968,16 @@
         <v>3600.244041813158</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
         <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
         <v>2243.29312148622</v>
@@ -7011,31 +7011,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174677</v>
+        <v>242.4709188044723</v>
       </c>
       <c r="K36" t="n">
-        <v>266.7104780195275</v>
+        <v>391.5406030065322</v>
       </c>
       <c r="L36" t="n">
-        <v>513.4756059259915</v>
+        <v>638.3057309129962</v>
       </c>
       <c r="M36" t="n">
-        <v>820.7957392059532</v>
+        <v>945.6258641929578</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.658366869986</v>
+        <v>1715.532541156295</v>
       </c>
       <c r="O36" t="n">
-        <v>1776.466079419201</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7078,7 +7078,7 @@
         <v>456.9802240424968</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
         <v>299.8173650422755</v>
@@ -7090,7 +7090,7 @@
         <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
         <v>155.9829803443641</v>
@@ -7114,10 +7114,10 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
         <v>1844.098534133941</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928559</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C38" t="n">
         <v>1625.370946561769</v>
@@ -7160,16 +7160,16 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872898</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922891</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402938</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
         <v>177.4083093538498</v>
@@ -7178,13 +7178,13 @@
         <v>379.9072094774264</v>
       </c>
       <c r="L38" t="n">
-        <v>668.0267631162785</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M38" t="n">
-        <v>1334.795961106306</v>
+        <v>1711.788140556424</v>
       </c>
       <c r="N38" t="n">
-        <v>2130.341082210336</v>
+        <v>2507.333261660454</v>
       </c>
       <c r="O38" t="n">
         <v>2836.364143234532</v>
@@ -7205,7 +7205,7 @@
         <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
         <v>3153.206593873103</v>
@@ -7217,7 +7217,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>266.7104780195275</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L39" t="n">
-        <v>513.4756059259915</v>
+        <v>880.6075477764161</v>
       </c>
       <c r="M39" t="n">
-        <v>820.7957392059532</v>
+        <v>1648.975694168877</v>
       </c>
       <c r="N39" t="n">
-        <v>1150.658366869986</v>
+        <v>2030.810682109833</v>
       </c>
       <c r="O39" t="n">
-        <v>1776.466079419201</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G40" t="n">
         <v>200.4621344021371</v>
@@ -7327,7 +7327,7 @@
         <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
         <v>155.9829803443641</v>
@@ -7351,16 +7351,16 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
         <v>1468.824662217087</v>
@@ -7375,7 +7375,7 @@
         <v>903.1937261963451</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872898</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402938</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742028</v>
       </c>
       <c r="K41" t="n">
-        <v>379.9072094774264</v>
+        <v>868.2168169432324</v>
       </c>
       <c r="L41" t="n">
-        <v>982.5380055443193</v>
+        <v>1569.82097298703</v>
       </c>
       <c r="M41" t="n">
-        <v>1334.795961106306</v>
+        <v>1981.207117116192</v>
       </c>
       <c r="N41" t="n">
-        <v>2130.341082210336</v>
+        <v>2776.752238220223</v>
       </c>
       <c r="O41" t="n">
-        <v>2836.364143234532</v>
+        <v>3105.783119794301</v>
       </c>
       <c r="P41" t="n">
-        <v>3401.264108490335</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q41" t="n">
-        <v>3748.258696799038</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R41" t="n">
         <v>3807.485832605501</v>
@@ -7439,7 +7439,7 @@
         <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
         <v>3415.449390176632</v>
@@ -7448,10 +7448,10 @@
         <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y41" t="n">
         <v>2243.29312148622</v>
@@ -7485,31 +7485,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>266.7104780195275</v>
+        <v>282.3901465752944</v>
       </c>
       <c r="L42" t="n">
-        <v>513.4756059259915</v>
+        <v>529.1552744817584</v>
       </c>
       <c r="M42" t="n">
-        <v>820.7957392059532</v>
+        <v>836.4754077617199</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.658366869986</v>
+        <v>1640.886986025871</v>
       </c>
       <c r="O42" t="n">
-        <v>1776.466079419201</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7558,22 +7558,22 @@
         <v>299.8173650422755</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173196</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7643,19 +7643,19 @@
         <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
         <v>177.4083093538498</v>
       </c>
       <c r="K44" t="n">
-        <v>379.9072094774264</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L44" t="n">
-        <v>982.5380055443193</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M44" t="n">
-        <v>1334.795961106306</v>
+        <v>1767.76941627417</v>
       </c>
       <c r="N44" t="n">
         <v>2130.341082210336</v>
@@ -7722,31 +7722,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
         <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195275</v>
+        <v>305.1819008088321</v>
       </c>
       <c r="L45" t="n">
-        <v>513.4756059259915</v>
+        <v>919.0789705657207</v>
       </c>
       <c r="M45" t="n">
-        <v>820.7957392059532</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.658366869986</v>
+        <v>2030.810682109833</v>
       </c>
       <c r="O45" t="n">
-        <v>1776.466079419201</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7798,40 +7798,40 @@
         <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443642</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
@@ -7843,10 +7843,10 @@
         <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963454</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928556</v>
@@ -8061,13 +8061,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>375.2833119013999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>121.1251663123598</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,13 +8298,13 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.5864374864155</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273547</v>
+        <v>132.647065034147</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>349.7653003338561</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>349.7653003338571</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.8380490462287</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9720,22 +9720,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338571</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>209.6590082048717</v>
       </c>
       <c r="L35" t="n">
-        <v>317.6881236646875</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>317.6881236646877</v>
+        <v>280.8270903769826</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>52.49733361305329</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>317.6881236646876</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>59.72544299714667</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484367</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.8380490462292</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>317.6881236646876</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>13.22842095505672</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>38.86002301949966</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>46.36793629945915</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>279.8977722525659</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>21.50339032590062</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X2" t="n">
         <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
-        <v>340.0396651327132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>5.378560066418828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>47.3256582318576</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8051956154454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>161.6841967022032</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>189.3952778808842</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.9275204083455</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>81.73562347877424</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>85.22840382338055</v>
       </c>
       <c r="I28" t="n">
-        <v>24.27167325162461</v>
+        <v>20.77889290705254</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.93004847405678</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.7356234787743</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>21.07724825637632</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2716732516263</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1414844.891703103</v>
+        <v>1414844.891703105</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1475144.418592409</v>
+        <v>1475144.418592408</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1475144.418592409</v>
+        <v>1475144.418592408</v>
       </c>
     </row>
     <row r="12">
@@ -26366,16 +26366,16 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.6875843894</v>
+        <v>15106.68758438935</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536879</v>
+        <v>417183.622153688</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>4.344331790858193e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119824.0383665755</v>
+        <v>119824.0383665743</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475326</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>104320.4844076672</v>
+        <v>104320.4844076685</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762908</v>
+        <v>69175.089337629</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>50948.3396353256</v>
+        <v>50948.33963532443</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297662.1441385805</v>
+        <v>297662.1441385814</v>
       </c>
       <c r="C4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316562</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="J4" t="n">
-        <v>64517.09995490496</v>
+        <v>64517.09995490449</v>
       </c>
       <c r="K4" t="n">
-        <v>64517.09995490495</v>
+        <v>64517.09995490449</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448604</v>
       </c>
       <c r="M4" t="n">
+        <v>99837.12979766788</v>
+      </c>
+      <c r="N4" t="n">
         <v>99837.12979766785</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>99837.12979766786</v>
-      </c>
-      <c r="O4" t="n">
-        <v>99837.12979766782</v>
       </c>
       <c r="P4" t="n">
         <v>99837.12979766785</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97341.29590471937</v>
+        <v>97341.29590471924</v>
       </c>
       <c r="K5" t="n">
-        <v>97341.29590471937</v>
+        <v>97341.29590471924</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
         <v>81703.90096581176</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
         <v>81703.90096581176</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-458191.0064203633</v>
+        <v>-458294.2384086631</v>
       </c>
       <c r="C6" t="n">
         <v>-383215.0355380818</v>
@@ -26528,37 +26528,37 @@
         <v>-692249.2966095271</v>
       </c>
       <c r="E6" t="n">
-        <v>-660708.7839087785</v>
+        <v>-660806.2430347505</v>
       </c>
       <c r="F6" t="n">
-        <v>-135548.7474318823</v>
+        <v>-135646.2065578544</v>
       </c>
       <c r="G6" t="n">
-        <v>-135548.7474318821</v>
+        <v>-135646.2065578544</v>
       </c>
       <c r="H6" t="n">
-        <v>-135548.7474318822</v>
+        <v>-135646.2065578544</v>
       </c>
       <c r="I6" t="n">
-        <v>-135548.7474318822</v>
+        <v>-135646.2065578544</v>
       </c>
       <c r="J6" t="n">
-        <v>-281682.4342261999</v>
+        <v>-281688.7946640018</v>
       </c>
       <c r="K6" t="n">
-        <v>-165182.1696840996</v>
+        <v>-165188.5301219028</v>
       </c>
       <c r="L6" t="n">
-        <v>-268015.7989521787</v>
+        <v>-268015.7989521799</v>
       </c>
       <c r="M6" t="n">
-        <v>-250716.1201011087</v>
+        <v>-250716.1201011086</v>
       </c>
       <c r="N6" t="n">
         <v>-181541.0307634796</v>
       </c>
       <c r="O6" t="n">
-        <v>-232489.3703988052</v>
+        <v>-232489.370398804</v>
       </c>
       <c r="P6" t="n">
         <v>-181541.0307634796</v>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="K2" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26768,7 +26768,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513752</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513752</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513752</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513752</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.446465585483656</v>
+        <v>4.446465585485115</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415554</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233601</v>
+        <v>12.00787803233596</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="K4" t="n">
-        <v>12.914479750689</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590521999</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968197</v>
+        <v>277.5841853968196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>368.8422851043723</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>64.49554443984579</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>104.1372593458962</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>44.20121196413868</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27558,10 +27558,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
-        <v>15.59235192972153</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27591,7 +27591,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381041</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6571329217654</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>130.719532039356</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>139.005434824964</v>
-      </c>
       <c r="H5" t="n">
-        <v>306.7184574846235</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>16.21169719610916</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>84.0959852054327</v>
       </c>
     </row>
     <row r="7">
@@ -27819,7 +27819,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27831,10 +27831,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W7" t="n">
-        <v>285.8456030524925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.20169186836381</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.0357834187763</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>6.771212764859769</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="C28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="D28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="E28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="F28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="G28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="H28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="I28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="J28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="K28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="L28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="M28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="N28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="O28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="P28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="R28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="S28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="T28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="U28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="V28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="W28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="X28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.68542454415699</v>
+        <v>63.68542454415558</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="C31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="D31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="E31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="F31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="G31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="H31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="I31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="J31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="K31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="L31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="M31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="N31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="O31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="P31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="R31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="S31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="T31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="U31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="V31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="W31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="X31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.68542454415694</v>
+        <v>63.68542454415558</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964159</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964108</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964122</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964153</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30751,13 +30751,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964077</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V44" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964045</v>
       </c>
       <c r="X44" t="n">
         <v>68.13189012964068</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
         <v>196.494535815018</v>
@@ -34711,7 +34711,7 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
         <v>103.8696448668208</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>245.6915715436817</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>2.65770498321449</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
@@ -34796,7 +34796,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>269.5389906563205</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>276.1565137023555</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>599.0230052898805</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>682.9598737318699</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>57.74822800113536</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36440,22 +36440,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749652</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>76.19319470972252</v>
+        <v>76.1931947097211</v>
       </c>
       <c r="K28" t="n">
-        <v>215.3878530740676</v>
+        <v>215.3878530740661</v>
       </c>
       <c r="L28" t="n">
-        <v>313.8996114240855</v>
+        <v>313.8996114240841</v>
       </c>
       <c r="M28" t="n">
-        <v>337.9952657231295</v>
+        <v>337.9952657231281</v>
       </c>
       <c r="N28" t="n">
-        <v>336.9623023497606</v>
+        <v>336.9623023497592</v>
       </c>
       <c r="O28" t="n">
-        <v>299.9227760647598</v>
+        <v>299.9227760647584</v>
       </c>
       <c r="P28" t="n">
-        <v>242.0690251559577</v>
+        <v>242.0690251559563</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.9111245160317</v>
+        <v>102.9111245160303</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>546.5043485321271</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>76.19319470972246</v>
+        <v>76.1931947097211</v>
       </c>
       <c r="K31" t="n">
-        <v>215.3878530740675</v>
+        <v>215.3878530740661</v>
       </c>
       <c r="L31" t="n">
-        <v>313.8996114240855</v>
+        <v>313.8996114240841</v>
       </c>
       <c r="M31" t="n">
-        <v>337.9952657231295</v>
+        <v>337.9952657231281</v>
       </c>
       <c r="N31" t="n">
-        <v>336.9623023497605</v>
+        <v>336.9623023497592</v>
       </c>
       <c r="O31" t="n">
-        <v>299.9227760647598</v>
+        <v>299.9227760647584</v>
       </c>
       <c r="P31" t="n">
-        <v>242.0690251559577</v>
+        <v>242.0690251559563</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.9111245160317</v>
+        <v>102.9111245160303</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>682.9598737318699</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694342</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591683</v>
+        <v>414.2033517640399</v>
       </c>
       <c r="L35" t="n">
-        <v>608.7179758251442</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394296</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>777.6835120841789</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,16 +37546,16 @@
         <v>204.5443435591682</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>673.5042403939668</v>
+        <v>636.6432071062617</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37625,25 +37625,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>385.6919070110661</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591682</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>608.7179758251443</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>355.8161167292791</v>
+        <v>415.5415597264258</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903001</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>166.4134876341684</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,16 +38017,16 @@
         <v>102.2814067694341</v>
       </c>
       <c r="K44" t="n">
-        <v>204.5443435591682</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>608.7179758251443</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292791</v>
+        <v>369.0445376843358</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38096,28 +38096,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>189.4354616074389</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
